--- a/WorkBook.xlsx
+++ b/WorkBook.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t xml:space="preserve">DATE</t>
   </si>
@@ -43,6 +43,9 @@
     <t xml:space="preserve">DIFFICULTY</t>
   </si>
   <si>
+    <t xml:space="preserve">PROBLEM LINK</t>
+  </si>
+  <si>
     <t xml:space="preserve">CHETHAN</t>
   </si>
   <si>
@@ -86,16 +89,35 @@
   </si>
   <si>
     <t xml:space="preserve">Validate Binary Search Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/validate-binary-search-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        PRATIGYA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                     Leaf-Similar Trees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">             Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">            EASY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/leaf-similar-trees/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="D/M/YYYY"/>
     <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
+    <numFmt numFmtId="167" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -185,7 +207,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -214,6 +236,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -238,14 +264,16 @@
   <dimension ref="A1:Z21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D12" activeCellId="0" sqref="D12"/>
+      <selection pane="topLeft" activeCell="D11" activeCellId="0" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="17.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="39.27"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="5" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="0" width="17.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="43.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="26" min="8" style="0" width="17.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="27" style="0" width="12.63"/>
   </cols>
   <sheetData>
@@ -268,7 +296,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -297,16 +327,16 @@
         <v>2</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
@@ -337,16 +367,16 @@
         <v>23</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -377,16 +407,16 @@
         <v>25</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -417,16 +447,16 @@
         <v>700</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -457,16 +487,16 @@
         <v>94</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>16</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
@@ -497,16 +527,16 @@
         <v>100</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -537,16 +567,16 @@
         <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -577,18 +607,20 @@
         <v>98</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="3"/>
+        <v>10</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
       <c r="J9" s="3"/>
@@ -609,7 +641,29 @@
       <c r="Y9" s="3"/>
       <c r="Z9" s="3"/>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="7" t="n">
+        <v>44360</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>872</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1602,6 +1656,10 @@
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" display="https://leetcode.com/problems/validate-binary-search-tree/"/>
+    <hyperlink ref="G10" r:id="rId2" display="https://leetcode.com/problems/leaf-similar-trees/"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1609,6 +1667,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>